--- a/financial-mapping/US-sanction-lists.xlsx
+++ b/financial-mapping/US-sanction-lists.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9817B-45E6-4BA0-AEC5-090D1D98D06D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B5CD0-61A4-4D23-BAD3-B768D013A830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="4190" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US-sanction-lists" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US-sanction-lists'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US-sanction-lists'!$C$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="186">
   <si>
     <t>Name</t>
   </si>
@@ -450,6 +450,165 @@
   </si>
   <si>
     <t>79110354982</t>
+  </si>
+  <si>
+    <t>1KSAbh5trMCTZwhiNsuUQvfTtSSTT8zqRk</t>
+  </si>
+  <si>
+    <t>1BiUFjzH6wsT73U3tfy4aXHCQsYQHzjk5h</t>
+  </si>
+  <si>
+    <t>LeKvNdNEzgQkzVVnRdV3fAu2DSF1nLsNw6</t>
+  </si>
+  <si>
+    <t>XVG</t>
+  </si>
+  <si>
+    <t>DFFJhnQNZf8rf67tYnesPu7MuGUpYtzv7Z</t>
+  </si>
+  <si>
+    <t>RAZA, Mujtaba Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILANI, Mujtaba Ali
+RAZA, Mujtaba
+</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>21 Oct 1987</t>
+  </si>
+  <si>
+    <t>threatcc@gmail.com
+mujtaba@forwarderz.com</t>
+  </si>
+  <si>
+    <t>National ID No. 4220104113771 (Pakistan)</t>
+  </si>
+  <si>
+    <t>ELECTION-EO13848
+Linked To: SECONDEYE SOLUTION</t>
+  </si>
+  <si>
+    <t>t1MMXtBrSp1XG38Lx9cePcNUCJj5vdWfUWL</t>
+  </si>
+  <si>
+    <t>XyARKoupuArYtToA2S6yMdnoquDCDaBsaT</t>
+  </si>
+  <si>
+    <t>ASSOCIATION FOR FREE RESEARCH AND INTERNATIONAL COOPERATION (a.k.a. "AFRIC")</t>
+  </si>
+  <si>
+    <t>Africonline@protonmail.com</t>
+  </si>
+  <si>
+    <t>UKRAINE-EO13661
+ELECTION-EO13848
+Linked To: PRIGOZHIN, Yevgeniy Viktorovich</t>
+  </si>
+  <si>
+    <t>1NE2NiGhhbkFPSEyNWwj7hKGhGDedBtSrQ</t>
+  </si>
+  <si>
+    <t>19D8PHBjZH29uS1uPZ4m3sVyqqfF8UFG9o</t>
+  </si>
+  <si>
+    <t>1EYitrwBYNWuTBcjZFbEUdqHppe2raLpaF</t>
+  </si>
+  <si>
+    <t>1G9CKRHA3mx22DoT1QyNYrh85VSQ19Y1em</t>
+  </si>
+  <si>
+    <t>182NGZbPJXwg2WDrhrPpR7tpiGQkNPF844</t>
+  </si>
+  <si>
+    <t>1NayLEVF3bEEbDtdF2Cwso1VdEtvVNh2qX</t>
+  </si>
+  <si>
+    <t>16PhXY3hNNMTo8kpuJx2emh713KbWpkqci</t>
+  </si>
+  <si>
+    <t>1GqChmWqGtsaLrGbHfgdrV5Nkvahtjjuxr</t>
+  </si>
+  <si>
+    <t>18Ke1QWE9nQfXuhJijHggZuPJ5ZYxapoBK</t>
+  </si>
+  <si>
+    <t>1QJUiNsNfji6mR1FjAwf6Eg9NxxHPoxpWL</t>
+  </si>
+  <si>
+    <t>1DtGgdCi9VPKz2Bpq8GQhUQEPnQ5HwaT9n</t>
+  </si>
+  <si>
+    <t>SECONDEYE SOLUTION</t>
+  </si>
+  <si>
+    <t>FORWARDERZ</t>
+  </si>
+  <si>
+    <t>support@secondeyesolution.com
+info@forwarderz.com
+forwarderz@yahoo.com
+forwarderzlive@google.com
+forwarderzlive@hotmail.com
+support@secondeyehost.com</t>
+  </si>
+  <si>
+    <t>ELECTION-EO13848
+Linked To: INTERNET RESEARCH AGENCY LLC</t>
+  </si>
+  <si>
+    <t>0x1da5821544e25c636c1417ba96ade4cf6d2f9b5a</t>
+  </si>
+  <si>
+    <t>0x7Db418b5D567A4e0E8c59Ad71BE1FcE48f3E6107</t>
+  </si>
+  <si>
+    <t>0x72a5843cc08275C8171E582972Aa4fDa8C397B2A</t>
+  </si>
+  <si>
+    <t>0x7F19720A857F834887FC9A7bC0a0fBe7Fc7f8102</t>
+  </si>
+  <si>
+    <t>LQAhYwwK5AR1JQiQPr7vu8Pu4b6qcxxvNB</t>
+  </si>
+  <si>
+    <t>LgwmgYnraU2uBWHVFUDgAmFCPYj5Yw8C9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18M8bJWMzWHDBMxoLqjHHAffdRy4SrzkfB </t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>SOUTH FRONT
+SOUTHFRONT: ANALYSIS &amp; INTELLIGENCE</t>
+  </si>
+  <si>
+    <t>SOUTHFRONT (News Agency)</t>
+  </si>
+  <si>
+    <t>NPWMD
+ELECTION-EO13848
+Linked To: FEDERAL SECURITY SERVICE</t>
+  </si>
+  <si>
+    <t>3Gbs4rjcVUtQd8p3CiFUCxPLZwRqurezRZ</t>
+  </si>
+  <si>
+    <t>0x9f4cda013e354b8fc285bf4b9a60460cee7f7ea9</t>
+  </si>
+  <si>
+    <t>qpf2cphc5dkuclkqur7lhj2yuqq9pk3hmukle77vhq</t>
+  </si>
+  <si>
+    <t>https://home.treasury.gov/policy-issues/financial-sanctions/recent-actions/20210415</t>
   </si>
 </sst>
 </file>
@@ -933,7 +1092,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,6 +1120,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1317,74 +1479,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J52" sqref="J52:J56"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="78.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="74.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
@@ -1392,2460 +1554,3403 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5">
         <v>31237</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5">
         <v>31237</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5">
         <v>31237</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5">
         <v>31237</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5">
         <v>31237</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5">
         <v>31237</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5">
         <v>31237</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5">
         <v>31237</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5">
         <v>31237</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3"/>
       <c r="I11" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3"/>
       <c r="I12" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="5">
-        <v>31787</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="5">
-        <v>31787</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5">
-        <v>31787</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5">
-        <v>31787</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="5">
-        <v>31787</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5">
-        <v>31787</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="4"/>
+      <c r="L19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="5">
-        <v>31787</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="4"/>
+      <c r="L20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="5">
-        <v>31787</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="4"/>
+      <c r="L21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="5">
-        <v>31787</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="4"/>
+      <c r="L22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="5">
-        <v>31787</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="5">
-        <v>31787</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="5">
-        <v>31787</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5">
+        <v>31787</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="5">
-        <v>31605</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5">
+        <v>31605</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="5">
-        <v>31605</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5">
+        <v>31605</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="5">
-        <v>31605</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5">
+        <v>31605</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="L28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="5">
-        <v>31605</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="5">
+        <v>31605</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="5">
-        <v>31605</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="5">
+        <v>31605</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="L30" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="5">
-        <v>31605</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="5">
+        <v>31605</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="L31" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="5">
-        <v>31605</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="5">
+        <v>31605</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="L32" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="5">
-        <v>31605</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="5">
+        <v>31605</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="L33" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="L36" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="L37" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="L40" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="L41" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="L42" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="L43" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="L44" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="L45" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="L46" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="3" t="s">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N57" s="3"/>
       <c r="O57" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="5">
-        <v>29119</v>
-      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="5">
+        <v>29119</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="K58" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="59" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="N63" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="K65" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="K66" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="K67" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M67" s="4"/>
+      <c r="N67" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="K68" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M68" s="4"/>
+      <c r="N68" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="K69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="K70" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="N70" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="K71" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="K72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="K73" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="K74" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M74" s="4"/>
+      <c r="N74" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="K75" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="K76" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="K77" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="K78" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="K79" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="K80" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="K81" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="K82" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M82" s="4"/>
+      <c r="N82" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="K83" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M83" s="4"/>
+      <c r="N83" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" s="4"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" s="4"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" s="4"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" s="4"/>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" s="4"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" s="4"/>
+      <c r="B94" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:P1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
